--- a/StatisticsTests/ExcelTesting/ExcelData/Normal.xlsx
+++ b/StatisticsTests/ExcelTesting/ExcelData/Normal.xlsx
@@ -15939,7 +15939,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -15986,7 +15986,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -16033,7 +16033,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -16083,7 +16083,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -16130,7 +16130,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -16282,7 +16282,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G8" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
         <x:v>14</x:v>
@@ -16409,7 +16409,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G12" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
         <x:v>14</x:v>
@@ -16583,7 +16583,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G16" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
         <x:v>14</x:v>
@@ -16636,7 +16636,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G20" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
         <x:v>14</x:v>
@@ -16689,7 +16689,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G24" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
         <x:v>14</x:v>
@@ -16746,7 +16746,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G29" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H29" s="7" t="s">
         <x:v>14</x:v>
@@ -16799,7 +16799,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G33" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H33" s="7" t="s">
         <x:v>14</x:v>
@@ -16852,7 +16852,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G37" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H37" s="7" t="s">
         <x:v>14</x:v>
@@ -16909,7 +16909,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G41" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H41" s="7" t="s">
         <x:v>14</x:v>
@@ -16962,7 +16962,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G45" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H45" s="7" t="s">
         <x:v>14</x:v>
@@ -17019,7 +17019,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G50" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H50" s="7" t="s">
         <x:v>14</x:v>
@@ -17072,7 +17072,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G54" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H54" s="7" t="s">
         <x:v>14</x:v>
@@ -17125,7 +17125,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G58" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H58" s="7" t="s">
         <x:v>14</x:v>
@@ -17178,7 +17178,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G62" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H62" s="7" t="s">
         <x:v>14</x:v>
@@ -17231,7 +17231,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G66" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H66" s="7" t="s">
         <x:v>14</x:v>
@@ -17288,7 +17288,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G71" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H71" s="7" t="s">
         <x:v>14</x:v>
@@ -17341,7 +17341,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G75" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H75" s="7" t="s">
         <x:v>14</x:v>
@@ -17394,7 +17394,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G79" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H79" s="7" t="s">
         <x:v>14</x:v>
@@ -17447,7 +17447,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G83" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H83" s="7" t="s">
         <x:v>14</x:v>
@@ -17500,7 +17500,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G87" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H87" s="7" t="s">
         <x:v>14</x:v>
@@ -17557,7 +17557,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G92" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H92" s="7" t="s">
         <x:v>14</x:v>
@@ -17610,7 +17610,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G96" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H96" s="7" t="s">
         <x:v>14</x:v>
@@ -17663,7 +17663,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G100" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H100" s="7" t="s">
         <x:v>14</x:v>
@@ -17716,7 +17716,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G104" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H104" s="7" t="s">
         <x:v>14</x:v>
@@ -17769,7 +17769,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G108" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H108" s="7" t="s">
         <x:v>14</x:v>
@@ -17937,7 +17937,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G8" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
         <x:v>14</x:v>
@@ -18068,7 +18068,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G12" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
         <x:v>14</x:v>
@@ -18243,7 +18243,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G16" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
         <x:v>14</x:v>
@@ -18297,7 +18297,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G20" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
         <x:v>14</x:v>
@@ -18351,7 +18351,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G24" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
         <x:v>14</x:v>
@@ -18409,7 +18409,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G29" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H29" s="7" t="s">
         <x:v>14</x:v>
@@ -18463,7 +18463,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G33" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H33" s="7" t="s">
         <x:v>14</x:v>
@@ -18517,7 +18517,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G37" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H37" s="7" t="s">
         <x:v>14</x:v>
@@ -18575,7 +18575,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G41" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H41" s="7" t="s">
         <x:v>14</x:v>
@@ -18629,7 +18629,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G45" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H45" s="7" t="s">
         <x:v>14</x:v>
@@ -18687,7 +18687,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G50" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H50" s="7" t="s">
         <x:v>14</x:v>
@@ -18741,7 +18741,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G54" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H54" s="7" t="s">
         <x:v>14</x:v>
@@ -18795,7 +18795,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G58" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H58" s="7" t="s">
         <x:v>14</x:v>
@@ -18849,7 +18849,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G62" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H62" s="7" t="s">
         <x:v>14</x:v>
@@ -18903,7 +18903,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G66" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H66" s="7" t="s">
         <x:v>14</x:v>
@@ -18961,7 +18961,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G71" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H71" s="7" t="s">
         <x:v>14</x:v>
@@ -19015,7 +19015,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G75" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H75" s="7" t="s">
         <x:v>14</x:v>
@@ -19069,7 +19069,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G79" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H79" s="7" t="s">
         <x:v>14</x:v>
@@ -19123,7 +19123,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G83" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H83" s="7" t="s">
         <x:v>14</x:v>
@@ -19177,7 +19177,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G87" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H87" s="7" t="s">
         <x:v>14</x:v>
@@ -19235,7 +19235,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G92" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H92" s="7" t="s">
         <x:v>14</x:v>
@@ -19289,7 +19289,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G96" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H96" s="7" t="s">
         <x:v>14</x:v>
@@ -19343,7 +19343,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G100" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H100" s="7" t="s">
         <x:v>14</x:v>
@@ -19397,7 +19397,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G104" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H104" s="7" t="s">
         <x:v>14</x:v>
@@ -19451,7 +19451,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G108" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H108" s="7" t="s">
         <x:v>14</x:v>
@@ -19608,7 +19608,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G8" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
         <x:v>14</x:v>
@@ -19665,7 +19665,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G12" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
         <x:v>14</x:v>
@@ -19719,7 +19719,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G16" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
         <x:v>14</x:v>
@@ -19772,7 +19772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G20" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
         <x:v>14</x:v>
@@ -19825,7 +19825,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G24" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
         <x:v>14</x:v>
@@ -19878,7 +19878,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G28" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H28" s="7" t="s">
         <x:v>14</x:v>
@@ -19931,7 +19931,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G32" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H32" s="7" t="s">
         <x:v>14</x:v>
@@ -19984,7 +19984,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G36" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H36" s="7" t="s">
         <x:v>14</x:v>
@@ -20037,7 +20037,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G40" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H40" s="7" t="s">
         <x:v>14</x:v>
@@ -20094,7 +20094,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G45" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H45" s="7" t="s">
         <x:v>14</x:v>
@@ -20149,7 +20149,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G49" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H49" s="7" t="s">
         <x:v>14</x:v>
@@ -20202,7 +20202,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G53" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H53" s="7" t="s">
         <x:v>14</x:v>
@@ -20254,7 +20254,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G57" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H57" s="7" t="s">
         <x:v>14</x:v>
@@ -20306,7 +20306,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G61" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H61" s="7" t="s">
         <x:v>14</x:v>
@@ -20358,7 +20358,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G65" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H65" s="7" t="s">
         <x:v>14</x:v>
@@ -20410,7 +20410,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G69" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H69" s="7" t="s">
         <x:v>14</x:v>
@@ -20462,7 +20462,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G73" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H73" s="7" t="s">
         <x:v>14</x:v>
@@ -20514,7 +20514,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G77" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H77" s="7" t="s">
         <x:v>14</x:v>
@@ -20570,7 +20570,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G82" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H82" s="7" t="s">
         <x:v>14</x:v>
@@ -20625,7 +20625,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G86" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H86" s="7" t="s">
         <x:v>14</x:v>
@@ -20678,7 +20678,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G90" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H90" s="7" t="s">
         <x:v>14</x:v>
@@ -20730,7 +20730,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G94" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H94" s="7" t="s">
         <x:v>14</x:v>
@@ -20782,7 +20782,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G98" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H98" s="7" t="s">
         <x:v>14</x:v>
@@ -20834,7 +20834,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G102" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H102" s="7" t="s">
         <x:v>14</x:v>
@@ -20886,7 +20886,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G106" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H106" s="7" t="s">
         <x:v>14</x:v>
@@ -20938,7 +20938,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G110" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H110" s="7" t="s">
         <x:v>14</x:v>
@@ -20990,7 +20990,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G114" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H114" s="7" t="s">
         <x:v>14</x:v>
@@ -21046,7 +21046,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G119" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H119" s="7" t="s">
         <x:v>14</x:v>
@@ -21101,7 +21101,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G123" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H123" s="7" t="s">
         <x:v>14</x:v>
@@ -21154,7 +21154,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G127" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H127" s="7" t="s">
         <x:v>14</x:v>
@@ -21206,7 +21206,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G131" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H131" s="7" t="s">
         <x:v>14</x:v>
@@ -21258,7 +21258,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G135" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H135" s="7" t="s">
         <x:v>14</x:v>
@@ -21310,7 +21310,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G139" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H139" s="7" t="s">
         <x:v>14</x:v>
@@ -21362,7 +21362,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G143" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H143" s="7" t="s">
         <x:v>14</x:v>
@@ -21414,7 +21414,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G147" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H147" s="7" t="s">
         <x:v>14</x:v>
@@ -21466,7 +21466,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G151" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H151" s="7" t="s">
         <x:v>14</x:v>
@@ -21522,7 +21522,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G156" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H156" s="7" t="s">
         <x:v>14</x:v>
@@ -21577,7 +21577,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G160" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H160" s="7" t="s">
         <x:v>14</x:v>
@@ -21630,7 +21630,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G164" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H164" s="7" t="s">
         <x:v>14</x:v>
@@ -21685,7 +21685,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G168" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H168" s="7" t="s">
         <x:v>14</x:v>
@@ -21737,7 +21737,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G172" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H172" s="7" t="s">
         <x:v>14</x:v>
@@ -21789,7 +21789,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G176" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H176" s="7" t="s">
         <x:v>14</x:v>
@@ -21841,7 +21841,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G180" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H180" s="7" t="s">
         <x:v>14</x:v>
@@ -21893,7 +21893,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G184" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H184" s="7" t="s">
         <x:v>14</x:v>
@@ -21945,7 +21945,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G188" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H188" s="7" t="s">
         <x:v>14</x:v>
@@ -22691,7 +22691,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -22737,7 +22737,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -22783,7 +22783,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -22829,7 +22829,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -22882,7 +22882,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -23009,7 +23009,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -23058,7 +23058,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -23104,7 +23104,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -23150,7 +23150,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -23196,7 +23196,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -23327,7 +23327,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -23376,7 +23376,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -23422,7 +23422,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -23468,7 +23468,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -23514,7 +23514,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -23645,7 +23645,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -23694,7 +23694,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -23740,7 +23740,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -23786,7 +23786,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -23832,7 +23832,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -23963,7 +23963,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -24012,7 +24012,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -24058,7 +24058,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -24104,7 +24104,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -24150,7 +24150,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -32472,7 +32472,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -32521,7 +32521,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -32567,7 +32567,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -32613,7 +32613,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -32659,7 +32659,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -32790,7 +32790,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -32839,7 +32839,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -32885,7 +32885,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -32931,7 +32931,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -32977,7 +32977,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -33108,7 +33108,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -33159,7 +33159,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -33210,7 +33210,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -33261,7 +33261,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -33310,7 +33310,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>

--- a/StatisticsTests/ExcelTesting/ExcelData/Normal.xlsx
+++ b/StatisticsTests/ExcelTesting/ExcelData/Normal.xlsx
@@ -134,7 +134,7 @@
     <x:t>Expected (Equation)</x:t>
   </x:si>
   <x:si>
-    <x:t>-5.997807015007687</x:t>
+    <x:t>-5.99780701500769</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -161,7 +161,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>-29.792763149525367</x:t>
+    <x:t>-29.7927631495254</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -188,7 +188,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>20.010964924961563</x:t>
+    <x:t>20.0109649249616</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -215,7 +215,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>70.01096492496157</x:t>
+    <x:t>70.0109649249616</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -242,7 +242,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>-19.95614030015375</x:t>
+    <x:t>-19.9561403001537</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -271,7 +271,7 @@
     <x:t>1. Test Data: Normal (Mean = 0, Std. Dev. = 1)</x:t>
   </x:si>
   <x:si>
-    <x:t>5.9978070196016375</x:t>
+    <x:t>5.99780701960164</x:t>
   </x:si>
   <x:si>
     <x:t>2. Test Data: Normal (Mean = -10, Std. Dev. = 3.3)</x:t>
@@ -283,19 +283,19 @@
     <x:t>3. Test Data: Normal (Mean = 50, Std. Dev. = 5)</x:t>
   </x:si>
   <x:si>
-    <x:t>79.98903509800819</x:t>
+    <x:t>79.9890350980082</x:t>
   </x:si>
   <x:si>
     <x:t>4. Test Data: Normal (Mean = 100, Std. Dev. = 5)</x:t>
   </x:si>
   <x:si>
-    <x:t>129.98903509800817</x:t>
+    <x:t>129.989035098008</x:t>
   </x:si>
   <x:si>
     <x:t>5. Test Data: Normal (Mean = 100, Std. Dev. = 20)</x:t>
   </x:si>
   <x:si>
-    <x:t>219.95614039203275</x:t>
+    <x:t>219.956140392033</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -587,7 +587,7 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>10.889999999999999</x:t>
+    <x:t>10.89</x:t>
   </x:si>
   <x:si>
     <x:t>25</x:t>
@@ -826,7 +826,7 @@
     <x:t>x</x:t>
   </x:si>
   <x:si>
-    <x:t>1.4867195147342977E-06</x:t>
+    <x:t>1.4867195147343E-06</x:t>
   </x:si>
   <x:si>
     <x:t>"Expected" p</x:t>
@@ -850,25 +850,25 @@
     <x:t>2. Test low x (x &lt; Mean)</x:t>
   </x:si>
   <x:si>
-    <x:t>0.24197072451914334</x:t>
+    <x:t>0.241970724519143</x:t>
   </x:si>
   <x:si>
     <x:t>3. Test mid-range x (x ~ Mean)</x:t>
   </x:si>
   <x:si>
-    <x:t>0.3813878154605241</x:t>
+    <x:t>0.381387815460524</x:t>
   </x:si>
   <x:si>
     <x:t>4. Test high x (x &gt; Mean)</x:t>
   </x:si>
   <x:si>
-    <x:t>0.2896915527614827</x:t>
+    <x:t>0.289691552761483</x:t>
   </x:si>
   <x:si>
     <x:t>5. Test very high x (x &gt;&gt; Mean)</x:t>
   </x:si>
   <x:si>
-    <x:t>0.004431848411938007</x:t>
+    <x:t>0.00443184841193801</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -895,13 +895,13 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>0.006400772022182648</x:t>
+    <x:t>0.00640077202218265</x:t>
   </x:si>
   <x:si>
-    <x:t>0.03836141820910355</x:t>
+    <x:t>0.0383614182091035</x:t>
   </x:si>
   <x:si>
-    <x:t>0.11546651736923388</x:t>
+    <x:t>0.115466517369234</x:t>
   </x:si>
   <x:si>
     <x:t>Note: Graphs approximate the shape of the function according to the points given.</x:t>
@@ -910,7 +910,7 @@
     <x:t>0.0688859107973821</x:t>
   </x:si>
   <x:si>
-    <x:t>0.001225717086632266</x:t>
+    <x:t>0.00122571708663227</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -937,16 +937,16 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>0.0008863696823876013</x:t>
+    <x:t>0.000886369682387601</x:t>
   </x:si>
   <x:si>
-    <x:t>0.022184166935891106</x:t>
+    <x:t>0.0221841669358911</x:t>
   </x:si>
   <x:si>
-    <x:t>0.06664492057835991</x:t>
+    <x:t>0.0666449205783599</x:t>
   </x:si>
   <x:si>
-    <x:t>0.01079819330263761</x:t>
+    <x:t>0.0107981933026376</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -973,13 +973,13 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>1.215176569964657E-09</x:t>
+    <x:t>1.21517656996466E-09</x:t>
   </x:si>
   <x:si>
-    <x:t>0.07978845608028652</x:t>
+    <x:t>0.0797884560802865</x:t>
   </x:si>
   <x:si>
-    <x:t>2.6766045152977068E-05</x:t>
+    <x:t>2.67660451529771E-05</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1006,19 +1006,19 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>0.0026995483256594026</x:t>
+    <x:t>0.0026995483256594</x:t>
   </x:si>
   <x:si>
-    <x:t>0.012098536225957166</x:t>
+    <x:t>0.0120985362259572</x:t>
   </x:si>
   <x:si>
-    <x:t>0.019847627373850586</x:t>
+    <x:t>0.0198476273738506</x:t>
   </x:si>
   <x:si>
-    <x:t>0.019333405840142457</x:t>
+    <x:t>0.0193334058401425</x:t>
   </x:si>
   <x:si>
-    <x:t>0.006475879783294586</x:t>
+    <x:t>0.00647587978329459</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1097,64 +1097,64 @@
     <x:t>(or use NORM.DIST(x, mean, std. dev., TRUE) )</x:t>
   </x:si>
   <x:si>
-    <x:t>2.8665157187919444E-07</x:t>
+    <x:t>2.86651571879194E-07</x:t>
   </x:si>
   <x:si>
-    <x:t>0.15865525393145707</x:t>
+    <x:t>0.158655253931457</x:t>
   </x:si>
   <x:si>
-    <x:t>0.3820885778110474</x:t>
+    <x:t>0.382088577811047</x:t>
   </x:si>
   <x:si>
-    <x:t>0.7881446014166034</x:t>
+    <x:t>0.788144601416603</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9999683287581669</x:t>
+    <x:t>0.999968328758167</x:t>
   </x:si>
   <x:si>
     <x:t>B. Test Data: Normal (Mean = -10, Std. Dev. = 3.3)</x:t>
   </x:si>
   <x:si>
-    <x:t>0.007670180620740959</x:t>
+    <x:t>0.00767018062074096</x:t>
   </x:si>
   <x:si>
-    <x:t>0.06486701914733445</x:t>
+    <x:t>0.0648670191473344</x:t>
   </x:si>
   <x:si>
-    <x:t>0.6190666159058761</x:t>
+    <x:t>0.619066615905876</x:t>
   </x:si>
   <x:si>
-    <x:t>0.8555655164380175</x:t>
+    <x:t>0.855565516438017</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9987784575864197</x:t>
+    <x:t>0.99877845758642</x:t>
   </x:si>
   <x:si>
     <x:t>C. Test Data: Normal (Mean = 50, Std. Dev. = 5)</x:t>
   </x:si>
   <x:si>
-    <x:t>0.0013498980316300959</x:t>
+    <x:t>0.0013498980316301</x:t>
   </x:si>
   <x:si>
-    <x:t>0.054799291699557995</x:t>
+    <x:t>0.054799291699558</x:t>
   </x:si>
   <x:si>
-    <x:t>0.7257468822499265</x:t>
+    <x:t>0.725746882249926</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9772498680518208</x:t>
+    <x:t>0.977249868051821</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9986501019683699</x:t>
+    <x:t>0.99865010196837</x:t>
   </x:si>
   <x:si>
     <x:t>D. Test Data: Normal (Mean = 100, Std. Dev. = 5)</x:t>
   </x:si>
   <x:si>
-    <x:t>9.865876450377018E-10</x:t>
+    <x:t>9.86587645037702E-10</x:t>
   </x:si>
   <x:si>
-    <x:t>0.02275013194817922</x:t>
+    <x:t>0.0227501319481792</x:t>
   </x:si>
   <x:si>
     <x:t>0.5</x:t>
@@ -1166,10 +1166,10 @@
     <x:t>0.460172162722971</x:t>
   </x:si>
   <x:si>
-    <x:t>0.5987063256829237</x:t>
+    <x:t>0.598706325682924</x:t>
   </x:si>
   <x:si>
-    <x:t>0.9331927987311419</x:t>
+    <x:t>0.933192798731142</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1237,19 +1237,19 @@
     <x:t>2. Test 01% Value: InverseCDF(0.01)</x:t>
   </x:si>
   <x:si>
-    <x:t>-2.3263478740408408</x:t>
+    <x:t>-2.32634787404084</x:t>
   </x:si>
   <x:si>
     <x:t>3. Test 05% Value: InverseCDF(0.05)</x:t>
   </x:si>
   <x:si>
-    <x:t>-1.6448536269514724</x:t>
+    <x:t>-1.64485362695147</x:t>
   </x:si>
   <x:si>
     <x:t>4. Test 25% Value: InverseCDF(0.25)</x:t>
   </x:si>
   <x:si>
-    <x:t>-0.6744897501960818</x:t>
+    <x:t>-0.674489750196082</x:t>
   </x:si>
   <x:si>
     <x:t>5. Test 50% Value: InverseCDF(0.50)</x:t>
@@ -1258,19 +1258,19 @@
     <x:t>6. Test 75% Value: InverseCDF(0.75)</x:t>
   </x:si>
   <x:si>
-    <x:t>0.6744897501960818</x:t>
+    <x:t>0.674489750196082</x:t>
   </x:si>
   <x:si>
     <x:t>7. Test 95% Value: InverseCDF(0.95)</x:t>
   </x:si>
   <x:si>
-    <x:t>1.6448536269514724</x:t>
+    <x:t>1.64485362695147</x:t>
   </x:si>
   <x:si>
     <x:t>8. Test 99% Value: InverseCDF(0.99)</x:t>
   </x:si>
   <x:si>
-    <x:t>2.3263478740408408</x:t>
+    <x:t>2.32634787404084</x:t>
   </x:si>
   <x:si>
     <x:t>9. Test 100% Value: InverseCDF(1)</x:t>
@@ -1300,22 +1300,22 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>-17.676947984334774</x:t>
+    <x:t>-17.6769479843348</x:t>
   </x:si>
   <x:si>
-    <x:t>-15.428016968939858</x:t>
+    <x:t>-15.4280169689399</x:t>
   </x:si>
   <x:si>
-    <x:t>-12.22581617564707</x:t>
+    <x:t>-12.2258161756471</x:t>
   </x:si>
   <x:si>
     <x:t>-7.77418382435293</x:t>
   </x:si>
   <x:si>
-    <x:t>-4.5719830310601415</x:t>
+    <x:t>-4.57198303106014</x:t>
   </x:si>
   <x:si>
-    <x:t>-2.323052015665226</x:t>
+    <x:t>-2.32305201566523</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1345,16 +1345,16 @@
     <x:t>38.3682606297958</x:t>
   </x:si>
   <x:si>
-    <x:t>41.77573186524264</x:t>
+    <x:t>41.7757318652426</x:t>
   </x:si>
   <x:si>
-    <x:t>46.62755124901959</x:t>
+    <x:t>46.6275512490196</x:t>
   </x:si>
   <x:si>
-    <x:t>53.37244875098041</x:t>
+    <x:t>53.3724487509804</x:t>
   </x:si>
   <x:si>
-    <x:t>58.22426813475736</x:t>
+    <x:t>58.2242681347574</x:t>
   </x:si>
   <x:si>
     <x:t>61.6317393702042</x:t>
@@ -1387,19 +1387,19 @@
     <x:t>88.3682606297958</x:t>
   </x:si>
   <x:si>
-    <x:t>91.77573186524263</x:t>
+    <x:t>91.7757318652426</x:t>
   </x:si>
   <x:si>
-    <x:t>96.62755124901959</x:t>
+    <x:t>96.6275512490196</x:t>
   </x:si>
   <x:si>
-    <x:t>103.37244875098041</x:t>
+    <x:t>103.37244875098</x:t>
   </x:si>
   <x:si>
-    <x:t>108.22426813475737</x:t>
+    <x:t>108.224268134757</x:t>
   </x:si>
   <x:si>
-    <x:t>111.6317393702042</x:t>
+    <x:t>111.631739370204</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1426,22 +1426,22 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>53.47304251918318</x:t>
+    <x:t>53.4730425191832</x:t>
   </x:si>
   <x:si>
-    <x:t>67.10292746097056</x:t>
+    <x:t>67.1029274609706</x:t>
   </x:si>
   <x:si>
-    <x:t>86.51020499607836</x:t>
+    <x:t>86.5102049960784</x:t>
   </x:si>
   <x:si>
-    <x:t>113.48979500392164</x:t>
+    <x:t>113.489795003922</x:t>
   </x:si>
   <x:si>
-    <x:t>132.89707253902944</x:t>
+    <x:t>132.897072539029</x:t>
   </x:si>
   <x:si>
-    <x:t>146.5269574808168</x:t>
+    <x:t>146.526957480817</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -15939,7 +15939,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -15953,7 +15953,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D8" s="4" t="n">
-        <x:v>-5.9978070150076865</x:v>
+        <x:v>-5.99780701500769</x:v>
       </x:c>
       <x:c r="E8" s="4" t="s">
         <x:v>15</x:v>
@@ -15986,7 +15986,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -16000,7 +16000,7 @@
         <x:v>3.3</x:v>
       </x:c>
       <x:c r="D12" s="4" t="n">
-        <x:v>-29.792763149525364</x:v>
+        <x:v>-29.7927631495254</x:v>
       </x:c>
       <x:c r="E12" s="4" t="s">
         <x:v>17</x:v>
@@ -16033,7 +16033,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -16047,7 +16047,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="4" t="n">
-        <x:v>20.010964924961566</x:v>
+        <x:v>20.0109649249616</x:v>
       </x:c>
       <x:c r="E16" s="4" t="s">
         <x:v>19</x:v>
@@ -16083,7 +16083,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -16097,7 +16097,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D20" s="4" t="n">
-        <x:v>70.01096492496157</x:v>
+        <x:v>70.0109649249616</x:v>
       </x:c>
       <x:c r="E20" s="4" t="s">
         <x:v>21</x:v>
@@ -16130,7 +16130,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -16145,7 +16145,7 @@
       </x:c>
       <x:c r="C24" s="0" t="s"/>
       <x:c r="D24" s="4" t="n">
-        <x:v>-19.956140300153734</x:v>
+        <x:v>-19.9561403001537</x:v>
       </x:c>
       <x:c r="E24" s="4" t="s">
         <x:v>23</x:v>
@@ -16282,7 +16282,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G8" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
         <x:v>14</x:v>
@@ -16299,7 +16299,7 @@
         <x:v>-5</x:v>
       </x:c>
       <x:c r="D9" s="4" t="n">
-        <x:v>1.4867195147342977E-06</x:v>
+        <x:v>1.4867195147343E-06</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>86</x:v>
@@ -16409,7 +16409,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G12" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
         <x:v>14</x:v>
@@ -16456,7 +16456,7 @@
         <x:v>-1</x:v>
       </x:c>
       <x:c r="D13" s="4" t="n">
-        <x:v>0.24197072451914337</x:v>
+        <x:v>0.241970724519143</x:v>
       </x:c>
       <x:c r="E13" s="4" t="s">
         <x:v>94</x:v>
@@ -16583,7 +16583,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G16" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
         <x:v>14</x:v>
@@ -16600,7 +16600,7 @@
         <x:v>-0.3</x:v>
       </x:c>
       <x:c r="D17" s="4" t="n">
-        <x:v>0.38138781546052414</x:v>
+        <x:v>0.381387815460524</x:v>
       </x:c>
       <x:c r="E17" s="4" t="s">
         <x:v>96</x:v>
@@ -16636,7 +16636,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G20" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
         <x:v>14</x:v>
@@ -16653,7 +16653,7 @@
         <x:v>0.8</x:v>
       </x:c>
       <x:c r="D21" s="4" t="n">
-        <x:v>0.28969155276148273</x:v>
+        <x:v>0.289691552761483</x:v>
       </x:c>
       <x:c r="E21" s="4" t="s">
         <x:v>98</x:v>
@@ -16689,7 +16689,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G24" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
         <x:v>14</x:v>
@@ -16706,7 +16706,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D25" s="4" t="n">
-        <x:v>0.0044318484119380075</x:v>
+        <x:v>0.00443184841193801</x:v>
       </x:c>
       <x:c r="E25" s="4" t="s">
         <x:v>100</x:v>
@@ -16746,7 +16746,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G29" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="H29" s="7" t="s">
         <x:v>14</x:v>
@@ -16799,7 +16799,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G33" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="H33" s="7" t="s">
         <x:v>14</x:v>
@@ -16816,7 +16816,7 @@
         <x:v>-15</x:v>
       </x:c>
       <x:c r="D34" s="4" t="n">
-        <x:v>0.038361418209103555</x:v>
+        <x:v>0.0383614182091036</x:v>
       </x:c>
       <x:c r="E34" s="4" t="s">
         <x:v>103</x:v>
@@ -16852,7 +16852,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G37" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H37" s="7" t="s">
         <x:v>14</x:v>
@@ -16869,7 +16869,7 @@
         <x:v>-9</x:v>
       </x:c>
       <x:c r="D38" s="4" t="n">
-        <x:v>0.11546651736923391</x:v>
+        <x:v>0.115466517369234</x:v>
       </x:c>
       <x:c r="E38" s="4" t="s">
         <x:v>104</x:v>
@@ -16909,7 +16909,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G41" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H41" s="7" t="s">
         <x:v>14</x:v>
@@ -16926,7 +16926,7 @@
         <x:v>-6.5</x:v>
       </x:c>
       <x:c r="D42" s="4" t="n">
-        <x:v>0.06888591079738211</x:v>
+        <x:v>0.0688859107973821</x:v>
       </x:c>
       <x:c r="E42" s="4" t="s">
         <x:v>106</x:v>
@@ -16962,7 +16962,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G45" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H45" s="7" t="s">
         <x:v>14</x:v>
@@ -16979,7 +16979,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D46" s="4" t="n">
-        <x:v>0.0012257170866322661</x:v>
+        <x:v>0.00122571708663227</x:v>
       </x:c>
       <x:c r="E46" s="4" t="s">
         <x:v>107</x:v>
@@ -17019,7 +17019,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G50" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H50" s="7" t="s">
         <x:v>14</x:v>
@@ -17036,7 +17036,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D51" s="4" t="n">
-        <x:v>0.0008863696823876015</x:v>
+        <x:v>0.000886369682387602</x:v>
       </x:c>
       <x:c r="E51" s="4" t="s">
         <x:v>109</x:v>
@@ -17072,7 +17072,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G54" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="H54" s="7" t="s">
         <x:v>14</x:v>
@@ -17089,7 +17089,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="D55" s="4" t="n">
-        <x:v>0.022184166935891113</x:v>
+        <x:v>0.0221841669358911</x:v>
       </x:c>
       <x:c r="E55" s="4" t="s">
         <x:v>110</x:v>
@@ -17125,7 +17125,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G58" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H58" s="7" t="s">
         <x:v>14</x:v>
@@ -17142,7 +17142,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D59" s="4" t="n">
-        <x:v>0.06664492057835994</x:v>
+        <x:v>0.0666449205783599</x:v>
       </x:c>
       <x:c r="E59" s="4" t="s">
         <x:v>111</x:v>
@@ -17178,7 +17178,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G62" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H62" s="7" t="s">
         <x:v>14</x:v>
@@ -17195,7 +17195,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D63" s="4" t="n">
-        <x:v>0.010798193302637612</x:v>
+        <x:v>0.0107981933026376</x:v>
       </x:c>
       <x:c r="E63" s="4" t="s">
         <x:v>112</x:v>
@@ -17231,7 +17231,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G66" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H66" s="7" t="s">
         <x:v>14</x:v>
@@ -17248,7 +17248,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D67" s="4" t="n">
-        <x:v>0.0008863696823876015</x:v>
+        <x:v>0.000886369682387602</x:v>
       </x:c>
       <x:c r="E67" s="4" t="s">
         <x:v>109</x:v>
@@ -17288,7 +17288,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G71" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H71" s="7" t="s">
         <x:v>14</x:v>
@@ -17305,7 +17305,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="D72" s="4" t="n">
-        <x:v>1.2151765699646574E-09</x:v>
+        <x:v>1.21517656996466E-09</x:v>
       </x:c>
       <x:c r="E72" s="4" t="s">
         <x:v>114</x:v>
@@ -17341,7 +17341,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G75" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="H75" s="7" t="s">
         <x:v>14</x:v>
@@ -17358,7 +17358,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D76" s="4" t="n">
-        <x:v>0.010798193302637612</x:v>
+        <x:v>0.0107981933026376</x:v>
       </x:c>
       <x:c r="E76" s="4" t="s">
         <x:v>112</x:v>
@@ -17394,7 +17394,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G79" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H79" s="7" t="s">
         <x:v>14</x:v>
@@ -17411,7 +17411,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="D80" s="4" t="n">
-        <x:v>0.07978845608028655</x:v>
+        <x:v>0.0797884560802865</x:v>
       </x:c>
       <x:c r="E80" s="4" t="s">
         <x:v>115</x:v>
@@ -17447,7 +17447,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G83" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H83" s="7" t="s">
         <x:v>14</x:v>
@@ -17464,7 +17464,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="D84" s="4" t="n">
-        <x:v>0.06664492057835994</x:v>
+        <x:v>0.0666449205783599</x:v>
       </x:c>
       <x:c r="E84" s="4" t="s">
         <x:v>111</x:v>
@@ -17500,7 +17500,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G87" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="H87" s="7" t="s">
         <x:v>14</x:v>
@@ -17517,7 +17517,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="D88" s="4" t="n">
-        <x:v>2.6766045152977075E-05</x:v>
+        <x:v>2.67660451529771E-05</x:v>
       </x:c>
       <x:c r="E88" s="4" t="s">
         <x:v>116</x:v>
@@ -17557,7 +17557,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G92" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H92" s="7" t="s">
         <x:v>14</x:v>
@@ -17574,7 +17574,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D93" s="4" t="n">
-        <x:v>0.002699548325659403</x:v>
+        <x:v>0.0026995483256594</x:v>
       </x:c>
       <x:c r="E93" s="4" t="s">
         <x:v>118</x:v>
@@ -17610,7 +17610,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G96" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="H96" s="7" t="s">
         <x:v>14</x:v>
@@ -17627,7 +17627,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="D97" s="4" t="n">
-        <x:v>0.01209853622595717</x:v>
+        <x:v>0.0120985362259572</x:v>
       </x:c>
       <x:c r="E97" s="4" t="s">
         <x:v>119</x:v>
@@ -17663,7 +17663,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G100" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="H100" s="7" t="s">
         <x:v>14</x:v>
@@ -17680,7 +17680,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="D101" s="4" t="n">
-        <x:v>0.019847627373850592</x:v>
+        <x:v>0.0198476273738506</x:v>
       </x:c>
       <x:c r="E101" s="4" t="s">
         <x:v>120</x:v>
@@ -17716,7 +17716,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G104" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H104" s="7" t="s">
         <x:v>14</x:v>
@@ -17733,7 +17733,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="D105" s="4" t="n">
-        <x:v>0.019333405840142464</x:v>
+        <x:v>0.0193334058401425</x:v>
       </x:c>
       <x:c r="E105" s="4" t="s">
         <x:v>121</x:v>
@@ -17769,7 +17769,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G108" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H108" s="7" t="s">
         <x:v>14</x:v>
@@ -17786,7 +17786,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="D109" s="4" t="n">
-        <x:v>0.0064758797832945875</x:v>
+        <x:v>0.00647587978329459</x:v>
       </x:c>
       <x:c r="E109" s="4" t="s">
         <x:v>122</x:v>
@@ -17937,7 +17937,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G8" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
         <x:v>14</x:v>
@@ -17958,7 +17958,7 @@
         <x:v>-5</x:v>
       </x:c>
       <x:c r="D9" s="4" t="n">
-        <x:v>2.8665157186802404E-07</x:v>
+        <x:v>2.86651571868024E-07</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>128</x:v>
@@ -18068,7 +18068,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G12" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
         <x:v>14</x:v>
@@ -18116,7 +18116,7 @@
         <x:v>-1</x:v>
       </x:c>
       <x:c r="D13" s="4" t="n">
-        <x:v>0.15865525393145713</x:v>
+        <x:v>0.158655253931457</x:v>
       </x:c>
       <x:c r="E13" s="4" t="s">
         <x:v>129</x:v>
@@ -18243,7 +18243,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G16" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
         <x:v>14</x:v>
@@ -18261,7 +18261,7 @@
         <x:v>-0.3</x:v>
       </x:c>
       <x:c r="D17" s="4" t="n">
-        <x:v>0.3820885778110474</x:v>
+        <x:v>0.382088577811047</x:v>
       </x:c>
       <x:c r="E17" s="4" t="s">
         <x:v>130</x:v>
@@ -18297,7 +18297,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G20" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
         <x:v>14</x:v>
@@ -18315,7 +18315,7 @@
         <x:v>0.8</x:v>
       </x:c>
       <x:c r="D21" s="4" t="n">
-        <x:v>0.7881446014166034</x:v>
+        <x:v>0.788144601416603</x:v>
       </x:c>
       <x:c r="E21" s="4" t="s">
         <x:v>131</x:v>
@@ -18351,7 +18351,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G24" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
         <x:v>14</x:v>
@@ -18369,7 +18369,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D25" s="4" t="n">
-        <x:v>0.9999683287581669</x:v>
+        <x:v>0.999968328758167</x:v>
       </x:c>
       <x:c r="E25" s="4" t="s">
         <x:v>132</x:v>
@@ -18409,7 +18409,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G29" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H29" s="7" t="s">
         <x:v>14</x:v>
@@ -18427,7 +18427,7 @@
         <x:v>-18</x:v>
       </x:c>
       <x:c r="D30" s="4" t="n">
-        <x:v>0.007670180620740985</x:v>
+        <x:v>0.00767018062074099</x:v>
       </x:c>
       <x:c r="E30" s="4" t="s">
         <x:v>134</x:v>
@@ -18463,7 +18463,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G33" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H33" s="7" t="s">
         <x:v>14</x:v>
@@ -18481,7 +18481,7 @@
         <x:v>-15</x:v>
       </x:c>
       <x:c r="D34" s="4" t="n">
-        <x:v>0.06486701914733445</x:v>
+        <x:v>0.0648670191473344</x:v>
       </x:c>
       <x:c r="E34" s="4" t="s">
         <x:v>135</x:v>
@@ -18517,7 +18517,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G37" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H37" s="7" t="s">
         <x:v>14</x:v>
@@ -18535,7 +18535,7 @@
         <x:v>-9</x:v>
       </x:c>
       <x:c r="D38" s="4" t="n">
-        <x:v>0.6190666159058762</x:v>
+        <x:v>0.619066615905876</x:v>
       </x:c>
       <x:c r="E38" s="4" t="s">
         <x:v>136</x:v>
@@ -18575,7 +18575,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G41" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H41" s="7" t="s">
         <x:v>14</x:v>
@@ -18593,7 +18593,7 @@
         <x:v>-6.5</x:v>
       </x:c>
       <x:c r="D42" s="4" t="n">
-        <x:v>0.8555655164380175</x:v>
+        <x:v>0.855565516438017</x:v>
       </x:c>
       <x:c r="E42" s="4" t="s">
         <x:v>137</x:v>
@@ -18629,7 +18629,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G45" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H45" s="7" t="s">
         <x:v>14</x:v>
@@ -18647,7 +18647,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D46" s="4" t="n">
-        <x:v>0.9987784575864198</x:v>
+        <x:v>0.99877845758642</x:v>
       </x:c>
       <x:c r="E46" s="4" t="s">
         <x:v>138</x:v>
@@ -18687,7 +18687,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G50" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H50" s="7" t="s">
         <x:v>14</x:v>
@@ -18705,7 +18705,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D51" s="4" t="n">
-        <x:v>0.0013498980316301035</x:v>
+        <x:v>0.0013498980316301</x:v>
       </x:c>
       <x:c r="E51" s="4" t="s">
         <x:v>140</x:v>
@@ -18741,7 +18741,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G54" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H54" s="7" t="s">
         <x:v>14</x:v>
@@ -18759,7 +18759,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="D55" s="4" t="n">
-        <x:v>0.054799291699557995</x:v>
+        <x:v>0.054799291699558</x:v>
       </x:c>
       <x:c r="E55" s="4" t="s">
         <x:v>141</x:v>
@@ -18795,7 +18795,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G58" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H58" s="7" t="s">
         <x:v>14</x:v>
@@ -18813,7 +18813,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D59" s="4" t="n">
-        <x:v>0.7257468822499265</x:v>
+        <x:v>0.725746882249926</x:v>
       </x:c>
       <x:c r="E59" s="4" t="s">
         <x:v>142</x:v>
@@ -18849,7 +18849,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G62" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H62" s="7" t="s">
         <x:v>14</x:v>
@@ -18867,7 +18867,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D63" s="4" t="n">
-        <x:v>0.9772498680518208</x:v>
+        <x:v>0.977249868051821</x:v>
       </x:c>
       <x:c r="E63" s="4" t="s">
         <x:v>143</x:v>
@@ -18903,7 +18903,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G66" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H66" s="7" t="s">
         <x:v>14</x:v>
@@ -18921,7 +18921,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D67" s="4" t="n">
-        <x:v>0.9986501019683699</x:v>
+        <x:v>0.99865010196837</x:v>
       </x:c>
       <x:c r="E67" s="4" t="s">
         <x:v>144</x:v>
@@ -18961,7 +18961,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G71" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H71" s="7" t="s">
         <x:v>14</x:v>
@@ -18979,7 +18979,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="D72" s="4" t="n">
-        <x:v>9.865876449133282E-10</x:v>
+        <x:v>9.86587644913328E-10</x:v>
       </x:c>
       <x:c r="E72" s="4" t="s">
         <x:v>146</x:v>
@@ -19015,7 +19015,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G75" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H75" s="7" t="s">
         <x:v>14</x:v>
@@ -19033,7 +19033,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D76" s="4" t="n">
-        <x:v>0.02275013194817921</x:v>
+        <x:v>0.0227501319481792</x:v>
       </x:c>
       <x:c r="E76" s="4" t="s">
         <x:v>147</x:v>
@@ -19069,7 +19069,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G79" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H79" s="7" t="s">
         <x:v>14</x:v>
@@ -19123,7 +19123,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G83" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H83" s="7" t="s">
         <x:v>14</x:v>
@@ -19141,7 +19141,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="D84" s="4" t="n">
-        <x:v>0.7257468822499265</x:v>
+        <x:v>0.725746882249926</x:v>
       </x:c>
       <x:c r="E84" s="4" t="s">
         <x:v>142</x:v>
@@ -19177,7 +19177,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G87" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H87" s="7" t="s">
         <x:v>14</x:v>
@@ -19195,7 +19195,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="D88" s="4" t="n">
-        <x:v>0.9999683287581669</x:v>
+        <x:v>0.999968328758167</x:v>
       </x:c>
       <x:c r="E88" s="4" t="s">
         <x:v>132</x:v>
@@ -19235,7 +19235,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G92" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H92" s="7" t="s">
         <x:v>14</x:v>
@@ -19253,7 +19253,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D93" s="4" t="n">
-        <x:v>0.02275013194817921</x:v>
+        <x:v>0.0227501319481792</x:v>
       </x:c>
       <x:c r="E93" s="4" t="s">
         <x:v>147</x:v>
@@ -19289,7 +19289,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G96" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H96" s="7" t="s">
         <x:v>14</x:v>
@@ -19307,7 +19307,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="D97" s="4" t="n">
-        <x:v>0.15865525393145713</x:v>
+        <x:v>0.158655253931457</x:v>
       </x:c>
       <x:c r="E97" s="4" t="s">
         <x:v>129</x:v>
@@ -19343,7 +19343,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G100" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H100" s="7" t="s">
         <x:v>14</x:v>
@@ -19397,7 +19397,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G104" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H104" s="7" t="s">
         <x:v>14</x:v>
@@ -19415,7 +19415,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="D105" s="4" t="n">
-        <x:v>0.5987063256829237</x:v>
+        <x:v>0.598706325682924</x:v>
       </x:c>
       <x:c r="E105" s="4" t="s">
         <x:v>151</x:v>
@@ -19451,7 +19451,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G108" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H108" s="7" t="s">
         <x:v>14</x:v>
@@ -19469,7 +19469,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="D109" s="4" t="n">
-        <x:v>0.9331927987311419</x:v>
+        <x:v>0.933192798731142</x:v>
       </x:c>
       <x:c r="E109" s="4" t="s">
         <x:v>152</x:v>
@@ -19608,7 +19608,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G8" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
         <x:v>14</x:v>
@@ -19626,7 +19626,7 @@
         <x:v>1E-09</x:v>
       </x:c>
       <x:c r="D9" s="4" t="n">
-        <x:v>-5.9978070150076865</x:v>
+        <x:v>-5.99780701500769</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
         <x:v>15</x:v>
@@ -19665,7 +19665,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G12" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
         <x:v>14</x:v>
@@ -19683,7 +19683,7 @@
         <x:v>0.01</x:v>
       </x:c>
       <x:c r="D13" s="4" t="n">
-        <x:v>-2.3263478740408408</x:v>
+        <x:v>-2.32634787404084</x:v>
       </x:c>
       <x:c r="E13" s="4" t="s">
         <x:v>161</x:v>
@@ -19719,7 +19719,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G16" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
         <x:v>14</x:v>
@@ -19737,7 +19737,7 @@
         <x:v>0.05</x:v>
       </x:c>
       <x:c r="D17" s="4" t="n">
-        <x:v>-1.6448536269514726</x:v>
+        <x:v>-1.64485362695147</x:v>
       </x:c>
       <x:c r="E17" s="4" t="s">
         <x:v>163</x:v>
@@ -19772,7 +19772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G20" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
         <x:v>14</x:v>
@@ -19790,7 +19790,7 @@
         <x:v>0.25</x:v>
       </x:c>
       <x:c r="D21" s="4" t="n">
-        <x:v>-0.6744897501960819</x:v>
+        <x:v>-0.674489750196082</x:v>
       </x:c>
       <x:c r="E21" s="4" t="s">
         <x:v>165</x:v>
@@ -19825,7 +19825,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G24" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
         <x:v>14</x:v>
@@ -19878,7 +19878,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G28" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H28" s="7" t="s">
         <x:v>14</x:v>
@@ -19896,7 +19896,7 @@
         <x:v>0.75</x:v>
       </x:c>
       <x:c r="D29" s="4" t="n">
-        <x:v>0.6744897501960819</x:v>
+        <x:v>0.674489750196082</x:v>
       </x:c>
       <x:c r="E29" s="4" t="s">
         <x:v>168</x:v>
@@ -19931,7 +19931,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G32" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H32" s="7" t="s">
         <x:v>14</x:v>
@@ -19949,7 +19949,7 @@
         <x:v>0.95</x:v>
       </x:c>
       <x:c r="D33" s="4" t="n">
-        <x:v>1.6448536269514715</x:v>
+        <x:v>1.64485362695147</x:v>
       </x:c>
       <x:c r="E33" s="4" t="s">
         <x:v>170</x:v>
@@ -19984,7 +19984,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G36" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H36" s="7" t="s">
         <x:v>14</x:v>
@@ -20002,7 +20002,7 @@
         <x:v>0.99</x:v>
       </x:c>
       <x:c r="D37" s="4" t="n">
-        <x:v>2.3263478740408408</x:v>
+        <x:v>2.32634787404084</x:v>
       </x:c>
       <x:c r="E37" s="4" t="s">
         <x:v>172</x:v>
@@ -20037,7 +20037,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G40" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H40" s="7" t="s">
         <x:v>14</x:v>
@@ -20055,7 +20055,7 @@
         <x:v>0.999999999</x:v>
       </x:c>
       <x:c r="D41" s="4" t="n">
-        <x:v>5.997807019601638</x:v>
+        <x:v>5.99780701960164</x:v>
       </x:c>
       <x:c r="E41" s="4" t="s">
         <x:v>26</x:v>
@@ -20094,7 +20094,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G45" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H45" s="7" t="s">
         <x:v>14</x:v>
@@ -20111,7 +20111,7 @@
         <x:v>1E-09</x:v>
       </x:c>
       <x:c r="D46" s="4" t="n">
-        <x:v>-29.792763149525364</x:v>
+        <x:v>-29.7927631495254</x:v>
       </x:c>
       <x:c r="E46" s="4" t="s">
         <x:v>17</x:v>
@@ -20149,7 +20149,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G49" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H49" s="7" t="s">
         <x:v>14</x:v>
@@ -20166,7 +20166,7 @@
         <x:v>0.01</x:v>
       </x:c>
       <x:c r="D50" s="4" t="n">
-        <x:v>-17.676947984334774</x:v>
+        <x:v>-17.6769479843348</x:v>
       </x:c>
       <x:c r="E50" s="4" t="s">
         <x:v>175</x:v>
@@ -20202,7 +20202,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G53" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H53" s="7" t="s">
         <x:v>14</x:v>
@@ -20219,7 +20219,7 @@
         <x:v>0.05</x:v>
       </x:c>
       <x:c r="D54" s="4" t="n">
-        <x:v>-15.42801696893986</x:v>
+        <x:v>-15.4280169689399</x:v>
       </x:c>
       <x:c r="E54" s="4" t="s">
         <x:v>176</x:v>
@@ -20254,7 +20254,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G57" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H57" s="7" t="s">
         <x:v>14</x:v>
@@ -20271,7 +20271,7 @@
         <x:v>0.25</x:v>
       </x:c>
       <x:c r="D58" s="4" t="n">
-        <x:v>-12.22581617564707</x:v>
+        <x:v>-12.2258161756471</x:v>
       </x:c>
       <x:c r="E58" s="4" t="s">
         <x:v>177</x:v>
@@ -20306,7 +20306,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G61" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H61" s="7" t="s">
         <x:v>14</x:v>
@@ -20358,7 +20358,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G65" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H65" s="7" t="s">
         <x:v>14</x:v>
@@ -20410,7 +20410,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G69" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H69" s="7" t="s">
         <x:v>14</x:v>
@@ -20427,7 +20427,7 @@
         <x:v>0.95</x:v>
       </x:c>
       <x:c r="D70" s="4" t="n">
-        <x:v>-4.571983031060144</x:v>
+        <x:v>-4.57198303106014</x:v>
       </x:c>
       <x:c r="E70" s="4" t="s">
         <x:v>179</x:v>
@@ -20462,7 +20462,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G73" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H73" s="7" t="s">
         <x:v>14</x:v>
@@ -20479,7 +20479,7 @@
         <x:v>0.99</x:v>
       </x:c>
       <x:c r="D74" s="4" t="n">
-        <x:v>-2.323052015665226</x:v>
+        <x:v>-2.32305201566523</x:v>
       </x:c>
       <x:c r="E74" s="4" t="s">
         <x:v>180</x:v>
@@ -20514,7 +20514,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G77" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H77" s="7" t="s">
         <x:v>14</x:v>
@@ -20531,7 +20531,7 @@
         <x:v>0.999999999</x:v>
       </x:c>
       <x:c r="D78" s="4" t="n">
-        <x:v>9.792763164685407</x:v>
+        <x:v>9.79276316468541</x:v>
       </x:c>
       <x:c r="E78" s="4" t="s">
         <x:v>28</x:v>
@@ -20570,7 +20570,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G82" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H82" s="7" t="s">
         <x:v>14</x:v>
@@ -20587,7 +20587,7 @@
         <x:v>1E-09</x:v>
       </x:c>
       <x:c r="D83" s="4" t="n">
-        <x:v>20.010964924961566</x:v>
+        <x:v>20.0109649249616</x:v>
       </x:c>
       <x:c r="E83" s="4" t="s">
         <x:v>19</x:v>
@@ -20625,7 +20625,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G86" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H86" s="7" t="s">
         <x:v>14</x:v>
@@ -20678,7 +20678,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G90" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H90" s="7" t="s">
         <x:v>14</x:v>
@@ -20695,7 +20695,7 @@
         <x:v>0.05</x:v>
       </x:c>
       <x:c r="D91" s="4" t="n">
-        <x:v>41.77573186524263</x:v>
+        <x:v>41.7757318652426</x:v>
       </x:c>
       <x:c r="E91" s="4" t="s">
         <x:v>183</x:v>
@@ -20730,7 +20730,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G94" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H94" s="7" t="s">
         <x:v>14</x:v>
@@ -20747,7 +20747,7 @@
         <x:v>0.25</x:v>
       </x:c>
       <x:c r="D95" s="4" t="n">
-        <x:v>46.62755124901959</x:v>
+        <x:v>46.6275512490196</x:v>
       </x:c>
       <x:c r="E95" s="4" t="s">
         <x:v>184</x:v>
@@ -20782,7 +20782,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G98" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H98" s="7" t="s">
         <x:v>14</x:v>
@@ -20834,7 +20834,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G102" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H102" s="7" t="s">
         <x:v>14</x:v>
@@ -20851,7 +20851,7 @@
         <x:v>0.75</x:v>
       </x:c>
       <x:c r="D103" s="4" t="n">
-        <x:v>53.37244875098041</x:v>
+        <x:v>53.3724487509804</x:v>
       </x:c>
       <x:c r="E103" s="4" t="s">
         <x:v>185</x:v>
@@ -20886,7 +20886,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G106" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H106" s="7" t="s">
         <x:v>14</x:v>
@@ -20903,7 +20903,7 @@
         <x:v>0.95</x:v>
       </x:c>
       <x:c r="D107" s="4" t="n">
-        <x:v>58.22426813475736</x:v>
+        <x:v>58.2242681347574</x:v>
       </x:c>
       <x:c r="E107" s="4" t="s">
         <x:v>186</x:v>
@@ -20938,7 +20938,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G110" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H110" s="7" t="s">
         <x:v>14</x:v>
@@ -20990,7 +20990,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G114" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H114" s="7" t="s">
         <x:v>14</x:v>
@@ -21007,7 +21007,7 @@
         <x:v>0.999999999</x:v>
       </x:c>
       <x:c r="D115" s="4" t="n">
-        <x:v>79.98903509800819</x:v>
+        <x:v>79.9890350980082</x:v>
       </x:c>
       <x:c r="E115" s="4" t="s">
         <x:v>30</x:v>
@@ -21046,7 +21046,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G119" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H119" s="7" t="s">
         <x:v>14</x:v>
@@ -21063,7 +21063,7 @@
         <x:v>1E-09</x:v>
       </x:c>
       <x:c r="D120" s="4" t="n">
-        <x:v>70.01096492496157</x:v>
+        <x:v>70.0109649249616</x:v>
       </x:c>
       <x:c r="E120" s="4" t="s">
         <x:v>21</x:v>
@@ -21101,7 +21101,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G123" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H123" s="7" t="s">
         <x:v>14</x:v>
@@ -21154,7 +21154,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G127" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H127" s="7" t="s">
         <x:v>14</x:v>
@@ -21171,7 +21171,7 @@
         <x:v>0.05</x:v>
       </x:c>
       <x:c r="D128" s="4" t="n">
-        <x:v>91.77573186524263</x:v>
+        <x:v>91.7757318652426</x:v>
       </x:c>
       <x:c r="E128" s="4" t="s">
         <x:v>190</x:v>
@@ -21206,7 +21206,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G131" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H131" s="7" t="s">
         <x:v>14</x:v>
@@ -21223,7 +21223,7 @@
         <x:v>0.25</x:v>
       </x:c>
       <x:c r="D132" s="4" t="n">
-        <x:v>96.62755124901959</x:v>
+        <x:v>96.6275512490196</x:v>
       </x:c>
       <x:c r="E132" s="4" t="s">
         <x:v>191</x:v>
@@ -21258,7 +21258,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G135" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H135" s="7" t="s">
         <x:v>14</x:v>
@@ -21310,7 +21310,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G139" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H139" s="7" t="s">
         <x:v>14</x:v>
@@ -21327,7 +21327,7 @@
         <x:v>0.75</x:v>
       </x:c>
       <x:c r="D140" s="4" t="n">
-        <x:v>103.37244875098041</x:v>
+        <x:v>103.37244875098</x:v>
       </x:c>
       <x:c r="E140" s="4" t="s">
         <x:v>192</x:v>
@@ -21362,7 +21362,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G143" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H143" s="7" t="s">
         <x:v>14</x:v>
@@ -21379,7 +21379,7 @@
         <x:v>0.95</x:v>
       </x:c>
       <x:c r="D144" s="4" t="n">
-        <x:v>108.22426813475735</x:v>
+        <x:v>108.224268134757</x:v>
       </x:c>
       <x:c r="E144" s="4" t="s">
         <x:v>193</x:v>
@@ -21414,7 +21414,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G147" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H147" s="7" t="s">
         <x:v>14</x:v>
@@ -21431,7 +21431,7 @@
         <x:v>0.99</x:v>
       </x:c>
       <x:c r="D148" s="4" t="n">
-        <x:v>111.6317393702042</x:v>
+        <x:v>111.631739370204</x:v>
       </x:c>
       <x:c r="E148" s="4" t="s">
         <x:v>194</x:v>
@@ -21466,7 +21466,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G151" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H151" s="7" t="s">
         <x:v>14</x:v>
@@ -21483,7 +21483,7 @@
         <x:v>0.999999999</x:v>
       </x:c>
       <x:c r="D152" s="4" t="n">
-        <x:v>129.9890350980082</x:v>
+        <x:v>129.989035098008</x:v>
       </x:c>
       <x:c r="E152" s="4" t="s">
         <x:v>32</x:v>
@@ -21522,7 +21522,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G156" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H156" s="7" t="s">
         <x:v>14</x:v>
@@ -21539,7 +21539,7 @@
         <x:v>1E-09</x:v>
       </x:c>
       <x:c r="D157" s="4" t="n">
-        <x:v>-19.956140300153734</x:v>
+        <x:v>-19.9561403001537</x:v>
       </x:c>
       <x:c r="E157" s="4" t="s">
         <x:v>23</x:v>
@@ -21577,7 +21577,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G160" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H160" s="7" t="s">
         <x:v>14</x:v>
@@ -21594,7 +21594,7 @@
         <x:v>0.01</x:v>
       </x:c>
       <x:c r="D161" s="4" t="n">
-        <x:v>53.47304251918318</x:v>
+        <x:v>53.4730425191832</x:v>
       </x:c>
       <x:c r="E161" s="4" t="s">
         <x:v>196</x:v>
@@ -21630,7 +21630,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G164" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H164" s="7" t="s">
         <x:v>14</x:v>
@@ -21647,7 +21647,7 @@
         <x:v>0.05</x:v>
       </x:c>
       <x:c r="D165" s="4" t="n">
-        <x:v>67.10292746097055</x:v>
+        <x:v>67.1029274609705</x:v>
       </x:c>
       <x:c r="E165" s="4" t="s">
         <x:v>197</x:v>
@@ -21685,7 +21685,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G168" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H168" s="7" t="s">
         <x:v>14</x:v>
@@ -21702,7 +21702,7 @@
         <x:v>0.25</x:v>
       </x:c>
       <x:c r="D169" s="4" t="n">
-        <x:v>86.51020499607836</x:v>
+        <x:v>86.5102049960784</x:v>
       </x:c>
       <x:c r="E169" s="4" t="s">
         <x:v>198</x:v>
@@ -21737,7 +21737,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G172" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H172" s="7" t="s">
         <x:v>14</x:v>
@@ -21789,7 +21789,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G176" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H176" s="7" t="s">
         <x:v>14</x:v>
@@ -21806,7 +21806,7 @@
         <x:v>0.75</x:v>
       </x:c>
       <x:c r="D177" s="4" t="n">
-        <x:v>113.48979500392164</x:v>
+        <x:v>113.489795003922</x:v>
       </x:c>
       <x:c r="E177" s="4" t="s">
         <x:v>199</x:v>
@@ -21841,7 +21841,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G180" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H180" s="7" t="s">
         <x:v>14</x:v>
@@ -21858,7 +21858,7 @@
         <x:v>0.95</x:v>
       </x:c>
       <x:c r="D181" s="4" t="n">
-        <x:v>132.89707253902944</x:v>
+        <x:v>132.897072539029</x:v>
       </x:c>
       <x:c r="E181" s="4" t="s">
         <x:v>200</x:v>
@@ -21893,7 +21893,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G184" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H184" s="7" t="s">
         <x:v>14</x:v>
@@ -21910,7 +21910,7 @@
         <x:v>0.99</x:v>
       </x:c>
       <x:c r="D185" s="4" t="n">
-        <x:v>146.5269574808168</x:v>
+        <x:v>146.526957480817</x:v>
       </x:c>
       <x:c r="E185" s="4" t="s">
         <x:v>201</x:v>
@@ -21945,7 +21945,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G188" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H188" s="7" t="s">
         <x:v>14</x:v>
@@ -21962,7 +21962,7 @@
         <x:v>0.999999999</x:v>
       </x:c>
       <x:c r="D189" s="4" t="n">
-        <x:v>219.95614039203275</x:v>
+        <x:v>219.956140392033</x:v>
       </x:c>
       <x:c r="E189" s="4" t="s">
         <x:v>34</x:v>
@@ -22691,7 +22691,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -22705,7 +22705,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D8" s="4" t="n">
-        <x:v>5.997807019601638</x:v>
+        <x:v>5.99780701960164</x:v>
       </x:c>
       <x:c r="E8" s="4" t="s">
         <x:v>26</x:v>
@@ -22737,7 +22737,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -22751,7 +22751,7 @@
         <x:v>3.3</x:v>
       </x:c>
       <x:c r="D12" s="4" t="n">
-        <x:v>9.792763164685407</x:v>
+        <x:v>9.79276316468541</x:v>
       </x:c>
       <x:c r="E12" s="4" t="s">
         <x:v>28</x:v>
@@ -22783,7 +22783,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -22797,7 +22797,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="4" t="n">
-        <x:v>79.98903509800819</x:v>
+        <x:v>79.9890350980082</x:v>
       </x:c>
       <x:c r="E16" s="4" t="s">
         <x:v>30</x:v>
@@ -22829,7 +22829,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -22844,7 +22844,7 @@
       </x:c>
       <x:c r="C20" s="0" t="s"/>
       <x:c r="D20" s="4" t="n">
-        <x:v>129.9890350980082</x:v>
+        <x:v>129.989035098008</x:v>
       </x:c>
       <x:c r="E20" s="4" t="s">
         <x:v>32</x:v>
@@ -22882,7 +22882,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -22896,7 +22896,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D24" s="4" t="n">
-        <x:v>219.95614039203275</x:v>
+        <x:v>219.956140392033</x:v>
       </x:c>
       <x:c r="E24" s="4" t="s">
         <x:v>34</x:v>
@@ -23009,7 +23009,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -23058,7 +23058,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -23104,7 +23104,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -23150,7 +23150,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -23196,7 +23196,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -23327,7 +23327,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -23376,7 +23376,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -23422,7 +23422,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -23468,7 +23468,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -23514,7 +23514,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -23645,7 +23645,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -23694,7 +23694,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -23740,7 +23740,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -23786,7 +23786,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -23832,7 +23832,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -23963,7 +23963,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -24012,7 +24012,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -24026,7 +24026,7 @@
         <x:v>3.3</x:v>
       </x:c>
       <x:c r="D12" s="4" t="n">
-        <x:v>10.889999999999999</x:v>
+        <x:v>10.89</x:v>
       </x:c>
       <x:c r="E12" s="4" t="s">
         <x:v>57</x:v>
@@ -24058,7 +24058,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -24104,7 +24104,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -24150,7 +24150,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -32472,7 +32472,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -32521,7 +32521,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -32567,7 +32567,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -32613,7 +32613,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -32659,7 +32659,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -32790,7 +32790,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -32839,7 +32839,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -32885,7 +32885,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -32931,7 +32931,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -32977,7 +32977,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
@@ -33108,7 +33108,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>14</x:v>
@@ -33159,7 +33159,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>14</x:v>
@@ -33210,7 +33210,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
         <x:v>14</x:v>
@@ -33261,7 +33261,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="G19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>14</x:v>
@@ -33310,7 +33310,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>14</x:v>
